--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_155.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_155.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32655-d119483-Reviews-Courtyard_Los_Angeles_Century_City_Beverly_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>456</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>485</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Courtyard-By-Marriott-Los-Angeles-Century-CityBeverly-Hills.h2657.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_155.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_155.xlsx
@@ -7608,7 +7608,7 @@
         <v>15683</v>
       </c>
       <c r="B2" t="n">
-        <v>132717</v>
+        <v>163519</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -7677,7 +7677,7 @@
         <v>15683</v>
       </c>
       <c r="B3" t="n">
-        <v>132718</v>
+        <v>163520</v>
       </c>
       <c r="C3" t="s">
         <v>58</v>
@@ -7746,7 +7746,7 @@
         <v>15683</v>
       </c>
       <c r="B4" t="n">
-        <v>132719</v>
+        <v>163521</v>
       </c>
       <c r="C4" t="s">
         <v>66</v>
@@ -7811,7 +7811,7 @@
         <v>15683</v>
       </c>
       <c r="B5" t="n">
-        <v>132720</v>
+        <v>163522</v>
       </c>
       <c r="C5" t="s">
         <v>76</v>
@@ -7943,7 +7943,7 @@
         <v>15683</v>
       </c>
       <c r="B7" t="n">
-        <v>132721</v>
+        <v>163523</v>
       </c>
       <c r="C7" t="s">
         <v>96</v>
@@ -8008,7 +8008,7 @@
         <v>15683</v>
       </c>
       <c r="B8" t="n">
-        <v>132722</v>
+        <v>163524</v>
       </c>
       <c r="C8" t="s">
         <v>107</v>
@@ -8150,7 +8150,7 @@
         <v>15683</v>
       </c>
       <c r="B10" t="n">
-        <v>132723</v>
+        <v>163525</v>
       </c>
       <c r="C10" t="s">
         <v>127</v>
@@ -8219,7 +8219,7 @@
         <v>15683</v>
       </c>
       <c r="B11" t="n">
-        <v>132724</v>
+        <v>163526</v>
       </c>
       <c r="C11" t="s">
         <v>134</v>
@@ -8284,7 +8284,7 @@
         <v>15683</v>
       </c>
       <c r="B12" t="n">
-        <v>132725</v>
+        <v>163527</v>
       </c>
       <c r="C12" t="s">
         <v>144</v>
@@ -8414,7 +8414,7 @@
         <v>15683</v>
       </c>
       <c r="B14" t="n">
-        <v>132726</v>
+        <v>163528</v>
       </c>
       <c r="C14" t="s">
         <v>163</v>
@@ -8483,7 +8483,7 @@
         <v>15683</v>
       </c>
       <c r="B15" t="n">
-        <v>132727</v>
+        <v>163529</v>
       </c>
       <c r="C15" t="s">
         <v>172</v>
@@ -8554,7 +8554,7 @@
         <v>15683</v>
       </c>
       <c r="B16" t="n">
-        <v>132728</v>
+        <v>163530</v>
       </c>
       <c r="C16" t="s">
         <v>182</v>
@@ -8625,7 +8625,7 @@
         <v>15683</v>
       </c>
       <c r="B17" t="n">
-        <v>132729</v>
+        <v>163531</v>
       </c>
       <c r="C17" t="s">
         <v>191</v>
@@ -8830,7 +8830,7 @@
         <v>15683</v>
       </c>
       <c r="B20" t="n">
-        <v>132730</v>
+        <v>163532</v>
       </c>
       <c r="C20" t="s">
         <v>218</v>
@@ -8895,7 +8895,7 @@
         <v>15683</v>
       </c>
       <c r="B21" t="n">
-        <v>132731</v>
+        <v>163533</v>
       </c>
       <c r="C21" t="s">
         <v>228</v>
@@ -8960,7 +8960,7 @@
         <v>15683</v>
       </c>
       <c r="B22" t="n">
-        <v>132732</v>
+        <v>163534</v>
       </c>
       <c r="C22" t="s">
         <v>237</v>
@@ -9094,7 +9094,7 @@
         <v>15683</v>
       </c>
       <c r="B24" t="n">
-        <v>132733</v>
+        <v>163535</v>
       </c>
       <c r="C24" t="s">
         <v>257</v>
@@ -9159,7 +9159,7 @@
         <v>15683</v>
       </c>
       <c r="B25" t="n">
-        <v>132734</v>
+        <v>163536</v>
       </c>
       <c r="C25" t="s">
         <v>263</v>
@@ -9224,7 +9224,7 @@
         <v>15683</v>
       </c>
       <c r="B26" t="n">
-        <v>132735</v>
+        <v>163537</v>
       </c>
       <c r="C26" t="s">
         <v>272</v>
@@ -9358,7 +9358,7 @@
         <v>15683</v>
       </c>
       <c r="B28" t="n">
-        <v>132736</v>
+        <v>163538</v>
       </c>
       <c r="C28" t="s">
         <v>291</v>
@@ -9423,7 +9423,7 @@
         <v>15683</v>
       </c>
       <c r="B29" t="n">
-        <v>132737</v>
+        <v>163539</v>
       </c>
       <c r="C29" t="s">
         <v>300</v>
@@ -9565,7 +9565,7 @@
         <v>15683</v>
       </c>
       <c r="B31" t="n">
-        <v>132738</v>
+        <v>132779</v>
       </c>
       <c r="C31" t="s">
         <v>319</v>
@@ -9705,7 +9705,7 @@
         <v>15683</v>
       </c>
       <c r="B33" t="n">
-        <v>132739</v>
+        <v>163540</v>
       </c>
       <c r="C33" t="s">
         <v>338</v>
@@ -9902,7 +9902,7 @@
         <v>15683</v>
       </c>
       <c r="B36" t="n">
-        <v>132740</v>
+        <v>163541</v>
       </c>
       <c r="C36" t="s">
         <v>360</v>
@@ -9963,7 +9963,7 @@
         <v>15683</v>
       </c>
       <c r="B37" t="n">
-        <v>132741</v>
+        <v>163542</v>
       </c>
       <c r="C37" t="s">
         <v>367</v>
@@ -10097,7 +10097,7 @@
         <v>15683</v>
       </c>
       <c r="B39" t="n">
-        <v>132742</v>
+        <v>163543</v>
       </c>
       <c r="C39" t="s">
         <v>382</v>
@@ -10158,7 +10158,7 @@
         <v>15683</v>
       </c>
       <c r="B40" t="n">
-        <v>132743</v>
+        <v>163544</v>
       </c>
       <c r="C40" t="s">
         <v>389</v>
@@ -10223,7 +10223,7 @@
         <v>15683</v>
       </c>
       <c r="B41" t="n">
-        <v>132744</v>
+        <v>163545</v>
       </c>
       <c r="C41" t="s">
         <v>399</v>
@@ -10284,7 +10284,7 @@
         <v>15683</v>
       </c>
       <c r="B42" t="n">
-        <v>132745</v>
+        <v>163546</v>
       </c>
       <c r="C42" t="s">
         <v>405</v>
@@ -10410,7 +10410,7 @@
         <v>15683</v>
       </c>
       <c r="B44" t="n">
-        <v>132746</v>
+        <v>163547</v>
       </c>
       <c r="C44" t="s">
         <v>417</v>
@@ -10479,7 +10479,7 @@
         <v>15683</v>
       </c>
       <c r="B45" t="n">
-        <v>132747</v>
+        <v>163548</v>
       </c>
       <c r="C45" t="s">
         <v>427</v>
@@ -10544,7 +10544,7 @@
         <v>15683</v>
       </c>
       <c r="B46" t="n">
-        <v>132748</v>
+        <v>163549</v>
       </c>
       <c r="C46" t="s">
         <v>436</v>
@@ -10613,7 +10613,7 @@
         <v>15683</v>
       </c>
       <c r="B47" t="n">
-        <v>132749</v>
+        <v>163550</v>
       </c>
       <c r="C47" t="s">
         <v>446</v>
@@ -10682,7 +10682,7 @@
         <v>15683</v>
       </c>
       <c r="B48" t="n">
-        <v>132750</v>
+        <v>163551</v>
       </c>
       <c r="C48" t="s">
         <v>456</v>
@@ -10747,7 +10747,7 @@
         <v>15683</v>
       </c>
       <c r="B49" t="n">
-        <v>132751</v>
+        <v>163552</v>
       </c>
       <c r="C49" t="s">
         <v>462</v>
@@ -10881,7 +10881,7 @@
         <v>15683</v>
       </c>
       <c r="B51" t="n">
-        <v>132752</v>
+        <v>163553</v>
       </c>
       <c r="C51" t="s">
         <v>479</v>
@@ -10952,7 +10952,7 @@
         <v>15683</v>
       </c>
       <c r="B52" t="n">
-        <v>132753</v>
+        <v>163554</v>
       </c>
       <c r="C52" t="s">
         <v>489</v>
@@ -11021,7 +11021,7 @@
         <v>15683</v>
       </c>
       <c r="B53" t="n">
-        <v>132754</v>
+        <v>163555</v>
       </c>
       <c r="C53" t="s">
         <v>499</v>
@@ -11090,7 +11090,7 @@
         <v>15683</v>
       </c>
       <c r="B54" t="n">
-        <v>132755</v>
+        <v>163556</v>
       </c>
       <c r="C54" t="s">
         <v>509</v>
@@ -11224,7 +11224,7 @@
         <v>15683</v>
       </c>
       <c r="B56" t="n">
-        <v>132756</v>
+        <v>163557</v>
       </c>
       <c r="C56" t="s">
         <v>527</v>
@@ -11293,7 +11293,7 @@
         <v>15683</v>
       </c>
       <c r="B57" t="n">
-        <v>132757</v>
+        <v>132741</v>
       </c>
       <c r="C57" t="s">
         <v>537</v>
@@ -11364,7 +11364,7 @@
         <v>15683</v>
       </c>
       <c r="B58" t="n">
-        <v>132758</v>
+        <v>163558</v>
       </c>
       <c r="C58" t="s">
         <v>546</v>
@@ -11490,7 +11490,7 @@
         <v>15683</v>
       </c>
       <c r="B60" t="n">
-        <v>132759</v>
+        <v>163559</v>
       </c>
       <c r="C60" t="s">
         <v>565</v>
@@ -11630,7 +11630,7 @@
         <v>15683</v>
       </c>
       <c r="B62" t="n">
-        <v>132760</v>
+        <v>163560</v>
       </c>
       <c r="C62" t="s">
         <v>583</v>
@@ -11695,7 +11695,7 @@
         <v>15683</v>
       </c>
       <c r="B63" t="n">
-        <v>132761</v>
+        <v>163561</v>
       </c>
       <c r="C63" t="s">
         <v>592</v>
@@ -11760,7 +11760,7 @@
         <v>15683</v>
       </c>
       <c r="B64" t="n">
-        <v>132762</v>
+        <v>163562</v>
       </c>
       <c r="C64" t="s">
         <v>602</v>
@@ -11831,7 +11831,7 @@
         <v>15683</v>
       </c>
       <c r="B65" t="n">
-        <v>132763</v>
+        <v>163563</v>
       </c>
       <c r="C65" t="s">
         <v>611</v>
@@ -11902,7 +11902,7 @@
         <v>15683</v>
       </c>
       <c r="B66" t="n">
-        <v>132764</v>
+        <v>163564</v>
       </c>
       <c r="C66" t="s">
         <v>620</v>
@@ -11967,7 +11967,7 @@
         <v>15683</v>
       </c>
       <c r="B67" t="n">
-        <v>132765</v>
+        <v>163565</v>
       </c>
       <c r="C67" t="s">
         <v>629</v>
@@ -12036,7 +12036,7 @@
         <v>15683</v>
       </c>
       <c r="B68" t="n">
-        <v>132766</v>
+        <v>163566</v>
       </c>
       <c r="C68" t="s">
         <v>636</v>
@@ -12101,7 +12101,7 @@
         <v>15683</v>
       </c>
       <c r="B69" t="n">
-        <v>132767</v>
+        <v>163567</v>
       </c>
       <c r="C69" t="s">
         <v>646</v>
@@ -12237,7 +12237,7 @@
         <v>15683</v>
       </c>
       <c r="B71" t="n">
-        <v>132768</v>
+        <v>163568</v>
       </c>
       <c r="C71" t="s">
         <v>663</v>
@@ -12379,7 +12379,7 @@
         <v>15683</v>
       </c>
       <c r="B73" t="n">
-        <v>132769</v>
+        <v>163569</v>
       </c>
       <c r="C73" t="s">
         <v>682</v>
@@ -12444,7 +12444,7 @@
         <v>15683</v>
       </c>
       <c r="B74" t="n">
-        <v>132770</v>
+        <v>163570</v>
       </c>
       <c r="C74" t="s">
         <v>692</v>
@@ -12513,7 +12513,7 @@
         <v>15683</v>
       </c>
       <c r="B75" t="n">
-        <v>132771</v>
+        <v>163571</v>
       </c>
       <c r="C75" t="s">
         <v>701</v>
@@ -12578,7 +12578,7 @@
         <v>15683</v>
       </c>
       <c r="B76" t="n">
-        <v>132772</v>
+        <v>163572</v>
       </c>
       <c r="C76" t="s">
         <v>710</v>
@@ -12718,7 +12718,7 @@
         <v>15683</v>
       </c>
       <c r="B78" t="n">
-        <v>132773</v>
+        <v>163573</v>
       </c>
       <c r="C78" t="s">
         <v>727</v>
@@ -12789,7 +12789,7 @@
         <v>15683</v>
       </c>
       <c r="B79" t="n">
-        <v>132774</v>
+        <v>163574</v>
       </c>
       <c r="C79" t="s">
         <v>734</v>
@@ -13000,7 +13000,7 @@
         <v>15683</v>
       </c>
       <c r="B82" t="n">
-        <v>132775</v>
+        <v>163575</v>
       </c>
       <c r="C82" t="s">
         <v>762</v>
@@ -13071,7 +13071,7 @@
         <v>15683</v>
       </c>
       <c r="B83" t="n">
-        <v>132776</v>
+        <v>163576</v>
       </c>
       <c r="C83" t="s">
         <v>772</v>
@@ -13201,7 +13201,7 @@
         <v>15683</v>
       </c>
       <c r="B85" t="n">
-        <v>132777</v>
+        <v>163577</v>
       </c>
       <c r="C85" t="s">
         <v>790</v>
@@ -13331,7 +13331,7 @@
         <v>15683</v>
       </c>
       <c r="B87" t="n">
-        <v>132778</v>
+        <v>163578</v>
       </c>
       <c r="C87" t="s">
         <v>808</v>
@@ -13392,7 +13392,7 @@
         <v>15683</v>
       </c>
       <c r="B88" t="n">
-        <v>132779</v>
+        <v>163579</v>
       </c>
       <c r="C88" t="s">
         <v>817</v>
@@ -13461,7 +13461,7 @@
         <v>15683</v>
       </c>
       <c r="B89" t="n">
-        <v>132780</v>
+        <v>163580</v>
       </c>
       <c r="C89" t="s">
         <v>826</v>
@@ -13532,7 +13532,7 @@
         <v>15683</v>
       </c>
       <c r="B90" t="n">
-        <v>132781</v>
+        <v>163581</v>
       </c>
       <c r="C90" t="s">
         <v>836</v>
@@ -13597,7 +13597,7 @@
         <v>15683</v>
       </c>
       <c r="B91" t="n">
-        <v>132782</v>
+        <v>163582</v>
       </c>
       <c r="C91" t="s">
         <v>846</v>
@@ -13741,7 +13741,7 @@
         <v>15683</v>
       </c>
       <c r="B93" t="n">
-        <v>132783</v>
+        <v>163583</v>
       </c>
       <c r="C93" t="s">
         <v>865</v>
@@ -13812,7 +13812,7 @@
         <v>15683</v>
       </c>
       <c r="B94" t="n">
-        <v>132756</v>
+        <v>132741</v>
       </c>
       <c r="C94" t="s">
         <v>537</v>
@@ -13962,7 +13962,7 @@
         <v>15683</v>
       </c>
       <c r="B96" t="n">
-        <v>132784</v>
+        <v>163584</v>
       </c>
       <c r="C96" t="s">
         <v>890</v>
@@ -14102,7 +14102,7 @@
         <v>15683</v>
       </c>
       <c r="B98" t="n">
-        <v>132785</v>
+        <v>163585</v>
       </c>
       <c r="C98" t="s">
         <v>906</v>
@@ -14252,7 +14252,7 @@
         <v>15683</v>
       </c>
       <c r="B100" t="n">
-        <v>132786</v>
+        <v>163586</v>
       </c>
       <c r="C100" t="s">
         <v>926</v>
@@ -14402,7 +14402,7 @@
         <v>15683</v>
       </c>
       <c r="B102" t="n">
-        <v>132787</v>
+        <v>163587</v>
       </c>
       <c r="C102" t="s">
         <v>945</v>
@@ -14477,7 +14477,7 @@
         <v>15683</v>
       </c>
       <c r="B103" t="n">
-        <v>132788</v>
+        <v>163588</v>
       </c>
       <c r="C103" t="s">
         <v>955</v>
@@ -14917,7 +14917,7 @@
         <v>15683</v>
       </c>
       <c r="B109" t="n">
-        <v>132789</v>
+        <v>163589</v>
       </c>
       <c r="C109" t="s">
         <v>1011</v>
@@ -14992,7 +14992,7 @@
         <v>15683</v>
       </c>
       <c r="B110" t="n">
-        <v>132790</v>
+        <v>163590</v>
       </c>
       <c r="C110" t="s">
         <v>1020</v>
@@ -15067,7 +15067,7 @@
         <v>15683</v>
       </c>
       <c r="B111" t="n">
-        <v>132791</v>
+        <v>163591</v>
       </c>
       <c r="C111" t="s">
         <v>1029</v>
@@ -15217,7 +15217,7 @@
         <v>15683</v>
       </c>
       <c r="B113" t="n">
-        <v>132792</v>
+        <v>163592</v>
       </c>
       <c r="C113" t="s">
         <v>1048</v>
@@ -15438,7 +15438,7 @@
         <v>15683</v>
       </c>
       <c r="B116" t="n">
-        <v>132793</v>
+        <v>163593</v>
       </c>
       <c r="C116" t="s">
         <v>1072</v>
@@ -15513,7 +15513,7 @@
         <v>15683</v>
       </c>
       <c r="B117" t="n">
-        <v>132794</v>
+        <v>163594</v>
       </c>
       <c r="C117" t="s">
         <v>1082</v>
@@ -15588,7 +15588,7 @@
         <v>15683</v>
       </c>
       <c r="B118" t="n">
-        <v>132795</v>
+        <v>163595</v>
       </c>
       <c r="C118" t="s">
         <v>1092</v>
@@ -15663,7 +15663,7 @@
         <v>15683</v>
       </c>
       <c r="B119" t="n">
-        <v>132796</v>
+        <v>163596</v>
       </c>
       <c r="C119" t="s">
         <v>1101</v>
@@ -15888,7 +15888,7 @@
         <v>15683</v>
       </c>
       <c r="B122" t="n">
-        <v>132797</v>
+        <v>163597</v>
       </c>
       <c r="C122" t="s">
         <v>1129</v>
@@ -15963,7 +15963,7 @@
         <v>15683</v>
       </c>
       <c r="B123" t="n">
-        <v>132798</v>
+        <v>163598</v>
       </c>
       <c r="C123" t="s">
         <v>1139</v>
@@ -16038,7 +16038,7 @@
         <v>15683</v>
       </c>
       <c r="B124" t="n">
-        <v>132799</v>
+        <v>163599</v>
       </c>
       <c r="C124" t="s">
         <v>1147</v>
@@ -16188,7 +16188,7 @@
         <v>15683</v>
       </c>
       <c r="B126" t="n">
-        <v>132800</v>
+        <v>163600</v>
       </c>
       <c r="C126" t="s">
         <v>1166</v>
@@ -16261,7 +16261,7 @@
         <v>15683</v>
       </c>
       <c r="B127" t="n">
-        <v>132801</v>
+        <v>163601</v>
       </c>
       <c r="C127" t="s">
         <v>1173</v>
@@ -16411,7 +16411,7 @@
         <v>15683</v>
       </c>
       <c r="B129" t="n">
-        <v>132802</v>
+        <v>163602</v>
       </c>
       <c r="C129" t="s">
         <v>1191</v>
@@ -16632,7 +16632,7 @@
         <v>15683</v>
       </c>
       <c r="B132" t="n">
-        <v>132803</v>
+        <v>163603</v>
       </c>
       <c r="C132" t="s">
         <v>1219</v>
@@ -16707,7 +16707,7 @@
         <v>15683</v>
       </c>
       <c r="B133" t="n">
-        <v>132804</v>
+        <v>163604</v>
       </c>
       <c r="C133" t="s">
         <v>1228</v>
@@ -16932,7 +16932,7 @@
         <v>15683</v>
       </c>
       <c r="B136" t="n">
-        <v>132805</v>
+        <v>163605</v>
       </c>
       <c r="C136" t="s">
         <v>1255</v>
@@ -17003,7 +17003,7 @@
         <v>15683</v>
       </c>
       <c r="B137" t="n">
-        <v>132806</v>
+        <v>163606</v>
       </c>
       <c r="C137" t="s">
         <v>1264</v>
@@ -17078,7 +17078,7 @@
         <v>15683</v>
       </c>
       <c r="B138" t="n">
-        <v>132807</v>
+        <v>163607</v>
       </c>
       <c r="C138" t="s">
         <v>1273</v>
@@ -17153,7 +17153,7 @@
         <v>15683</v>
       </c>
       <c r="B139" t="n">
-        <v>132808</v>
+        <v>163608</v>
       </c>
       <c r="C139" t="s">
         <v>1282</v>
@@ -17228,7 +17228,7 @@
         <v>15683</v>
       </c>
       <c r="B140" t="n">
-        <v>132809</v>
+        <v>163609</v>
       </c>
       <c r="C140" t="s">
         <v>1288</v>
@@ -17303,7 +17303,7 @@
         <v>15683</v>
       </c>
       <c r="B141" t="n">
-        <v>132810</v>
+        <v>163610</v>
       </c>
       <c r="C141" t="s">
         <v>1298</v>
@@ -17368,7 +17368,7 @@
         <v>15683</v>
       </c>
       <c r="B142" t="n">
-        <v>132811</v>
+        <v>163611</v>
       </c>
       <c r="C142" t="s">
         <v>1307</v>
@@ -17443,7 +17443,7 @@
         <v>15683</v>
       </c>
       <c r="B143" t="n">
-        <v>132812</v>
+        <v>163612</v>
       </c>
       <c r="C143" t="s">
         <v>1316</v>
@@ -17668,7 +17668,7 @@
         <v>15683</v>
       </c>
       <c r="B146" t="n">
-        <v>132813</v>
+        <v>163613</v>
       </c>
       <c r="C146" t="s">
         <v>1344</v>
@@ -17743,7 +17743,7 @@
         <v>15683</v>
       </c>
       <c r="B147" t="n">
-        <v>132814</v>
+        <v>163614</v>
       </c>
       <c r="C147" t="s">
         <v>1353</v>
@@ -17968,7 +17968,7 @@
         <v>15683</v>
       </c>
       <c r="B150" t="n">
-        <v>132815</v>
+        <v>163615</v>
       </c>
       <c r="C150" t="s">
         <v>1380</v>
@@ -18043,7 +18043,7 @@
         <v>15683</v>
       </c>
       <c r="B151" t="n">
-        <v>132816</v>
+        <v>163616</v>
       </c>
       <c r="C151" t="s">
         <v>1387</v>
@@ -18118,7 +18118,7 @@
         <v>15683</v>
       </c>
       <c r="B152" t="n">
-        <v>132817</v>
+        <v>163617</v>
       </c>
       <c r="C152" t="s">
         <v>1396</v>
@@ -18264,7 +18264,7 @@
         <v>15683</v>
       </c>
       <c r="B154" t="n">
-        <v>132818</v>
+        <v>163618</v>
       </c>
       <c r="C154" t="s">
         <v>1413</v>
@@ -18335,7 +18335,7 @@
         <v>15683</v>
       </c>
       <c r="B155" t="n">
-        <v>132819</v>
+        <v>163619</v>
       </c>
       <c r="C155" t="s">
         <v>1420</v>
@@ -18410,7 +18410,7 @@
         <v>15683</v>
       </c>
       <c r="B156" t="n">
-        <v>132820</v>
+        <v>163620</v>
       </c>
       <c r="C156" t="s">
         <v>1429</v>
@@ -18485,7 +18485,7 @@
         <v>15683</v>
       </c>
       <c r="B157" t="n">
-        <v>132821</v>
+        <v>163621</v>
       </c>
       <c r="C157" t="s">
         <v>1438</v>
@@ -18560,7 +18560,7 @@
         <v>15683</v>
       </c>
       <c r="B158" t="n">
-        <v>132822</v>
+        <v>163622</v>
       </c>
       <c r="C158" t="s">
         <v>1444</v>
@@ -18635,7 +18635,7 @@
         <v>15683</v>
       </c>
       <c r="B159" t="n">
-        <v>132823</v>
+        <v>163623</v>
       </c>
       <c r="C159" t="s">
         <v>1453</v>
@@ -18710,7 +18710,7 @@
         <v>15683</v>
       </c>
       <c r="B160" t="n">
-        <v>132824</v>
+        <v>163624</v>
       </c>
       <c r="C160" t="s">
         <v>1462</v>
@@ -18785,7 +18785,7 @@
         <v>15683</v>
       </c>
       <c r="B161" t="n">
-        <v>132825</v>
+        <v>163625</v>
       </c>
       <c r="C161" t="s">
         <v>1471</v>
@@ -18925,7 +18925,7 @@
         <v>15683</v>
       </c>
       <c r="B163" t="n">
-        <v>132826</v>
+        <v>163626</v>
       </c>
       <c r="C163" t="s">
         <v>1486</v>
@@ -19000,7 +19000,7 @@
         <v>15683</v>
       </c>
       <c r="B164" t="n">
-        <v>132827</v>
+        <v>163627</v>
       </c>
       <c r="C164" t="s">
         <v>1495</v>
@@ -19146,7 +19146,7 @@
         <v>15683</v>
       </c>
       <c r="B166" t="n">
-        <v>132828</v>
+        <v>163628</v>
       </c>
       <c r="C166" t="s">
         <v>1512</v>
@@ -19296,7 +19296,7 @@
         <v>15683</v>
       </c>
       <c r="B168" t="n">
-        <v>132829</v>
+        <v>163629</v>
       </c>
       <c r="C168" t="s">
         <v>1528</v>
@@ -19371,7 +19371,7 @@
         <v>15683</v>
       </c>
       <c r="B169" t="n">
-        <v>132830</v>
+        <v>163630</v>
       </c>
       <c r="C169" t="s">
         <v>1535</v>
@@ -19446,7 +19446,7 @@
         <v>15683</v>
       </c>
       <c r="B170" t="n">
-        <v>132831</v>
+        <v>163631</v>
       </c>
       <c r="C170" t="s">
         <v>1542</v>
@@ -19521,7 +19521,7 @@
         <v>15683</v>
       </c>
       <c r="B171" t="n">
-        <v>132832</v>
+        <v>163632</v>
       </c>
       <c r="C171" t="s">
         <v>1551</v>
@@ -19671,7 +19671,7 @@
         <v>15683</v>
       </c>
       <c r="B173" t="n">
-        <v>132833</v>
+        <v>163633</v>
       </c>
       <c r="C173" t="s">
         <v>1566</v>
@@ -19742,7 +19742,7 @@
         <v>15683</v>
       </c>
       <c r="B174" t="n">
-        <v>132834</v>
+        <v>163634</v>
       </c>
       <c r="C174" t="s">
         <v>1575</v>
@@ -19817,7 +19817,7 @@
         <v>15683</v>
       </c>
       <c r="B175" t="n">
-        <v>132835</v>
+        <v>163635</v>
       </c>
       <c r="C175" t="s">
         <v>1584</v>
@@ -19892,7 +19892,7 @@
         <v>15683</v>
       </c>
       <c r="B176" t="n">
-        <v>132836</v>
+        <v>132777</v>
       </c>
       <c r="C176" t="s">
         <v>1594</v>
@@ -19967,7 +19967,7 @@
         <v>15683</v>
       </c>
       <c r="B177" t="n">
-        <v>132837</v>
+        <v>163636</v>
       </c>
       <c r="C177" t="s">
         <v>1603</v>
@@ -20117,7 +20117,7 @@
         <v>15683</v>
       </c>
       <c r="B179" t="n">
-        <v>132838</v>
+        <v>163637</v>
       </c>
       <c r="C179" t="s">
         <v>1619</v>
@@ -20192,7 +20192,7 @@
         <v>15683</v>
       </c>
       <c r="B180" t="n">
-        <v>132839</v>
+        <v>163638</v>
       </c>
       <c r="C180" t="s">
         <v>1629</v>
@@ -20263,7 +20263,7 @@
         <v>15683</v>
       </c>
       <c r="B181" t="n">
-        <v>132840</v>
+        <v>163639</v>
       </c>
       <c r="C181" t="s">
         <v>1638</v>
@@ -20409,7 +20409,7 @@
         <v>15683</v>
       </c>
       <c r="B183" t="n">
-        <v>132841</v>
+        <v>163640</v>
       </c>
       <c r="C183" t="s">
         <v>1655</v>
@@ -20484,7 +20484,7 @@
         <v>15683</v>
       </c>
       <c r="B184" t="n">
-        <v>132842</v>
+        <v>163641</v>
       </c>
       <c r="C184" t="s">
         <v>1665</v>
@@ -20555,7 +20555,7 @@
         <v>15683</v>
       </c>
       <c r="B185" t="n">
-        <v>132843</v>
+        <v>163642</v>
       </c>
       <c r="C185" t="s">
         <v>1672</v>
@@ -20626,7 +20626,7 @@
         <v>15683</v>
       </c>
       <c r="B186" t="n">
-        <v>132844</v>
+        <v>163643</v>
       </c>
       <c r="C186" t="s">
         <v>1679</v>
@@ -20847,7 +20847,7 @@
         <v>15683</v>
       </c>
       <c r="B189" t="n">
-        <v>132845</v>
+        <v>163644</v>
       </c>
       <c r="C189" t="s">
         <v>1703</v>
@@ -20914,7 +20914,7 @@
         <v>15683</v>
       </c>
       <c r="B190" t="n">
-        <v>132846</v>
+        <v>163645</v>
       </c>
       <c r="C190" t="s">
         <v>1709</v>
@@ -20985,7 +20985,7 @@
         <v>15683</v>
       </c>
       <c r="B191" t="n">
-        <v>132847</v>
+        <v>163646</v>
       </c>
       <c r="C191" t="s">
         <v>1715</v>
@@ -21056,7 +21056,7 @@
         <v>15683</v>
       </c>
       <c r="B192" t="n">
-        <v>132848</v>
+        <v>163647</v>
       </c>
       <c r="C192" t="s">
         <v>1721</v>
@@ -21127,7 +21127,7 @@
         <v>15683</v>
       </c>
       <c r="B193" t="n">
-        <v>132849</v>
+        <v>163648</v>
       </c>
       <c r="C193" t="s">
         <v>1728</v>
@@ -21198,7 +21198,7 @@
         <v>15683</v>
       </c>
       <c r="B194" t="n">
-        <v>132850</v>
+        <v>163649</v>
       </c>
       <c r="C194" t="s">
         <v>1735</v>
@@ -21269,7 +21269,7 @@
         <v>15683</v>
       </c>
       <c r="B195" t="n">
-        <v>132851</v>
+        <v>163650</v>
       </c>
       <c r="C195" t="s">
         <v>1742</v>
@@ -21340,7 +21340,7 @@
         <v>15683</v>
       </c>
       <c r="B196" t="n">
-        <v>132852</v>
+        <v>163651</v>
       </c>
       <c r="C196" t="s">
         <v>1749</v>
@@ -21486,7 +21486,7 @@
         <v>15683</v>
       </c>
       <c r="B198" t="n">
-        <v>132853</v>
+        <v>163652</v>
       </c>
       <c r="C198" t="s">
         <v>1766</v>
@@ -21620,7 +21620,7 @@
         <v>15683</v>
       </c>
       <c r="B200" t="n">
-        <v>132854</v>
+        <v>163653</v>
       </c>
       <c r="C200" t="s">
         <v>1779</v>
@@ -21687,7 +21687,7 @@
         <v>15683</v>
       </c>
       <c r="B201" t="n">
-        <v>132855</v>
+        <v>163654</v>
       </c>
       <c r="C201" t="s">
         <v>1786</v>
@@ -21754,7 +21754,7 @@
         <v>15683</v>
       </c>
       <c r="B202" t="n">
-        <v>132856</v>
+        <v>163655</v>
       </c>
       <c r="C202" t="s">
         <v>1793</v>
@@ -21821,7 +21821,7 @@
         <v>15683</v>
       </c>
       <c r="B203" t="n">
-        <v>132857</v>
+        <v>163656</v>
       </c>
       <c r="C203" t="s">
         <v>1799</v>
@@ -21888,7 +21888,7 @@
         <v>15683</v>
       </c>
       <c r="B204" t="n">
-        <v>132858</v>
+        <v>163657</v>
       </c>
       <c r="C204" t="s">
         <v>1805</v>
@@ -21955,7 +21955,7 @@
         <v>15683</v>
       </c>
       <c r="B205" t="n">
-        <v>132859</v>
+        <v>163658</v>
       </c>
       <c r="C205" t="s">
         <v>1811</v>
@@ -22022,7 +22022,7 @@
         <v>15683</v>
       </c>
       <c r="B206" t="n">
-        <v>132860</v>
+        <v>163659</v>
       </c>
       <c r="C206" t="s">
         <v>1817</v>
@@ -22089,7 +22089,7 @@
         <v>15683</v>
       </c>
       <c r="B207" t="n">
-        <v>132835</v>
+        <v>132777</v>
       </c>
       <c r="C207" t="s">
         <v>1594</v>
@@ -22156,7 +22156,7 @@
         <v>15683</v>
       </c>
       <c r="B208" t="n">
-        <v>132861</v>
+        <v>163660</v>
       </c>
       <c r="C208" t="s">
         <v>1829</v>
@@ -22223,7 +22223,7 @@
         <v>15683</v>
       </c>
       <c r="B209" t="n">
-        <v>132862</v>
+        <v>163661</v>
       </c>
       <c r="C209" t="s">
         <v>1835</v>
@@ -22290,7 +22290,7 @@
         <v>15683</v>
       </c>
       <c r="B210" t="n">
-        <v>132863</v>
+        <v>163662</v>
       </c>
       <c r="C210" t="s">
         <v>1841</v>
@@ -22357,7 +22357,7 @@
         <v>15683</v>
       </c>
       <c r="B211" t="n">
-        <v>132864</v>
+        <v>163663</v>
       </c>
       <c r="C211" t="s">
         <v>1846</v>
@@ -22424,7 +22424,7 @@
         <v>15683</v>
       </c>
       <c r="B212" t="n">
-        <v>132865</v>
+        <v>163664</v>
       </c>
       <c r="C212" t="s">
         <v>1852</v>
@@ -22495,7 +22495,7 @@
         <v>15683</v>
       </c>
       <c r="B213" t="n">
-        <v>132866</v>
+        <v>163665</v>
       </c>
       <c r="C213" t="s">
         <v>1861</v>
@@ -22566,7 +22566,7 @@
         <v>15683</v>
       </c>
       <c r="B214" t="n">
-        <v>132867</v>
+        <v>163666</v>
       </c>
       <c r="C214" t="s">
         <v>1867</v>
@@ -22633,7 +22633,7 @@
         <v>15683</v>
       </c>
       <c r="B215" t="n">
-        <v>132868</v>
+        <v>163667</v>
       </c>
       <c r="C215" t="s">
         <v>1874</v>
@@ -22700,7 +22700,7 @@
         <v>15683</v>
       </c>
       <c r="B216" t="n">
-        <v>132869</v>
+        <v>163668</v>
       </c>
       <c r="C216" t="s">
         <v>1880</v>
@@ -22775,7 +22775,7 @@
         <v>15683</v>
       </c>
       <c r="B217" t="n">
-        <v>132870</v>
+        <v>163669</v>
       </c>
       <c r="C217" t="s">
         <v>1889</v>
@@ -22846,7 +22846,7 @@
         <v>15683</v>
       </c>
       <c r="B218" t="n">
-        <v>132871</v>
+        <v>163670</v>
       </c>
       <c r="C218" t="s">
         <v>1897</v>
@@ -22992,7 +22992,7 @@
         <v>15683</v>
       </c>
       <c r="B220" t="n">
-        <v>132872</v>
+        <v>163671</v>
       </c>
       <c r="C220" t="s">
         <v>1913</v>
@@ -23063,7 +23063,7 @@
         <v>15683</v>
       </c>
       <c r="B221" t="n">
-        <v>132873</v>
+        <v>163672</v>
       </c>
       <c r="C221" t="s">
         <v>1922</v>
@@ -23138,7 +23138,7 @@
         <v>15683</v>
       </c>
       <c r="B222" t="n">
-        <v>132874</v>
+        <v>163673</v>
       </c>
       <c r="C222" t="s">
         <v>1932</v>
@@ -23213,7 +23213,7 @@
         <v>15683</v>
       </c>
       <c r="B223" t="n">
-        <v>132737</v>
+        <v>132779</v>
       </c>
       <c r="C223" t="s">
         <v>319</v>
@@ -23288,7 +23288,7 @@
         <v>15683</v>
       </c>
       <c r="B224" t="n">
-        <v>132875</v>
+        <v>163674</v>
       </c>
       <c r="C224" t="s">
         <v>1946</v>
@@ -23359,7 +23359,7 @@
         <v>15683</v>
       </c>
       <c r="B225" t="n">
-        <v>132876</v>
+        <v>163675</v>
       </c>
       <c r="C225" t="s">
         <v>1952</v>
@@ -23430,7 +23430,7 @@
         <v>15683</v>
       </c>
       <c r="B226" t="n">
-        <v>132877</v>
+        <v>163676</v>
       </c>
       <c r="C226" t="s">
         <v>1958</v>
@@ -23501,7 +23501,7 @@
         <v>15683</v>
       </c>
       <c r="B227" t="n">
-        <v>132878</v>
+        <v>163677</v>
       </c>
       <c r="C227" t="s">
         <v>1967</v>
@@ -23576,7 +23576,7 @@
         <v>15683</v>
       </c>
       <c r="B228" t="n">
-        <v>132879</v>
+        <v>163678</v>
       </c>
       <c r="C228" t="s">
         <v>1976</v>
@@ -23651,7 +23651,7 @@
         <v>15683</v>
       </c>
       <c r="B229" t="n">
-        <v>132880</v>
+        <v>163679</v>
       </c>
       <c r="C229" t="s">
         <v>1986</v>
@@ -23726,7 +23726,7 @@
         <v>15683</v>
       </c>
       <c r="B230" t="n">
-        <v>132881</v>
+        <v>163680</v>
       </c>
       <c r="C230" t="s">
         <v>1993</v>
@@ -23801,7 +23801,7 @@
         <v>15683</v>
       </c>
       <c r="B231" t="n">
-        <v>132882</v>
+        <v>163681</v>
       </c>
       <c r="C231" t="s">
         <v>2002</v>
@@ -23876,7 +23876,7 @@
         <v>15683</v>
       </c>
       <c r="B232" t="n">
-        <v>132883</v>
+        <v>163682</v>
       </c>
       <c r="C232" t="s">
         <v>2009</v>
@@ -23947,7 +23947,7 @@
         <v>15683</v>
       </c>
       <c r="B233" t="n">
-        <v>132884</v>
+        <v>163683</v>
       </c>
       <c r="C233" t="s">
         <v>2016</v>
@@ -24018,7 +24018,7 @@
         <v>15683</v>
       </c>
       <c r="B234" t="n">
-        <v>132885</v>
+        <v>163684</v>
       </c>
       <c r="C234" t="s">
         <v>2022</v>
@@ -24079,7 +24079,7 @@
         <v>15683</v>
       </c>
       <c r="B235" t="n">
-        <v>132886</v>
+        <v>163685</v>
       </c>
       <c r="C235" t="s">
         <v>2028</v>
@@ -24150,7 +24150,7 @@
         <v>15683</v>
       </c>
       <c r="B236" t="n">
-        <v>132887</v>
+        <v>163686</v>
       </c>
       <c r="C236" t="s">
         <v>2034</v>
@@ -24225,7 +24225,7 @@
         <v>15683</v>
       </c>
       <c r="B237" t="n">
-        <v>132888</v>
+        <v>163687</v>
       </c>
       <c r="C237" t="s">
         <v>2043</v>
@@ -24298,7 +24298,7 @@
         <v>15683</v>
       </c>
       <c r="B238" t="n">
-        <v>132889</v>
+        <v>163688</v>
       </c>
       <c r="C238" t="s">
         <v>2053</v>
@@ -24373,7 +24373,7 @@
         <v>15683</v>
       </c>
       <c r="B239" t="n">
-        <v>132890</v>
+        <v>163689</v>
       </c>
       <c r="C239" t="s">
         <v>2060</v>
@@ -24448,7 +24448,7 @@
         <v>15683</v>
       </c>
       <c r="B240" t="n">
-        <v>132891</v>
+        <v>163690</v>
       </c>
       <c r="C240" t="s">
         <v>2070</v>
@@ -24523,7 +24523,7 @@
         <v>15683</v>
       </c>
       <c r="B241" t="n">
-        <v>132892</v>
+        <v>163691</v>
       </c>
       <c r="C241" t="s">
         <v>2077</v>
@@ -24669,7 +24669,7 @@
         <v>15683</v>
       </c>
       <c r="B243" t="n">
-        <v>132893</v>
+        <v>163692</v>
       </c>
       <c r="C243" t="s">
         <v>2092</v>
@@ -24744,7 +24744,7 @@
         <v>15683</v>
       </c>
       <c r="B244" t="n">
-        <v>132894</v>
+        <v>163693</v>
       </c>
       <c r="C244" t="s">
         <v>2099</v>
@@ -24819,7 +24819,7 @@
         <v>15683</v>
       </c>
       <c r="B245" t="n">
-        <v>132895</v>
+        <v>163694</v>
       </c>
       <c r="C245" t="s">
         <v>2109</v>
@@ -24894,7 +24894,7 @@
         <v>15683</v>
       </c>
       <c r="B246" t="n">
-        <v>132896</v>
+        <v>163695</v>
       </c>
       <c r="C246" t="s">
         <v>2118</v>
@@ -24955,7 +24955,7 @@
         <v>15683</v>
       </c>
       <c r="B247" t="n">
-        <v>132897</v>
+        <v>163696</v>
       </c>
       <c r="C247" t="s">
         <v>2125</v>
@@ -25030,7 +25030,7 @@
         <v>15683</v>
       </c>
       <c r="B248" t="n">
-        <v>132898</v>
+        <v>163697</v>
       </c>
       <c r="C248" t="s">
         <v>2134</v>
@@ -25105,7 +25105,7 @@
         <v>15683</v>
       </c>
       <c r="B249" t="n">
-        <v>132899</v>
+        <v>163698</v>
       </c>
       <c r="C249" t="s">
         <v>2144</v>
@@ -25176,7 +25176,7 @@
         <v>15683</v>
       </c>
       <c r="B250" t="n">
-        <v>132900</v>
+        <v>163699</v>
       </c>
       <c r="C250" t="s">
         <v>2151</v>
@@ -25247,7 +25247,7 @@
         <v>15683</v>
       </c>
       <c r="B251" t="n">
-        <v>132901</v>
+        <v>163700</v>
       </c>
       <c r="C251" t="s">
         <v>2158</v>
@@ -25318,7 +25318,7 @@
         <v>15683</v>
       </c>
       <c r="B252" t="n">
-        <v>132902</v>
+        <v>163701</v>
       </c>
       <c r="C252" t="s">
         <v>2165</v>
@@ -25389,7 +25389,7 @@
         <v>15683</v>
       </c>
       <c r="B253" t="n">
-        <v>132903</v>
+        <v>163702</v>
       </c>
       <c r="C253" t="s">
         <v>2171</v>
@@ -25460,7 +25460,7 @@
         <v>15683</v>
       </c>
       <c r="B254" t="n">
-        <v>132904</v>
+        <v>163703</v>
       </c>
       <c r="C254" t="s">
         <v>2178</v>
@@ -25602,7 +25602,7 @@
         <v>15683</v>
       </c>
       <c r="B256" t="n">
-        <v>132905</v>
+        <v>163704</v>
       </c>
       <c r="C256" t="s">
         <v>2194</v>
@@ -25673,7 +25673,7 @@
         <v>15683</v>
       </c>
       <c r="B257" t="n">
-        <v>132906</v>
+        <v>163705</v>
       </c>
       <c r="C257" t="s">
         <v>2200</v>
@@ -25744,7 +25744,7 @@
         <v>15683</v>
       </c>
       <c r="B258" t="n">
-        <v>132907</v>
+        <v>163706</v>
       </c>
       <c r="C258" t="s">
         <v>2208</v>
@@ -25815,7 +25815,7 @@
         <v>15683</v>
       </c>
       <c r="B259" t="n">
-        <v>132908</v>
+        <v>163707</v>
       </c>
       <c r="C259" t="s">
         <v>2215</v>
@@ -25886,7 +25886,7 @@
         <v>15683</v>
       </c>
       <c r="B260" t="n">
-        <v>132909</v>
+        <v>163708</v>
       </c>
       <c r="C260" t="s">
         <v>2222</v>
@@ -25957,7 +25957,7 @@
         <v>15683</v>
       </c>
       <c r="B261" t="n">
-        <v>132910</v>
+        <v>163709</v>
       </c>
       <c r="C261" t="s">
         <v>2229</v>
@@ -26028,7 +26028,7 @@
         <v>15683</v>
       </c>
       <c r="B262" t="n">
-        <v>132911</v>
+        <v>163710</v>
       </c>
       <c r="C262" t="s">
         <v>2237</v>
@@ -26099,7 +26099,7 @@
         <v>15683</v>
       </c>
       <c r="B263" t="n">
-        <v>132912</v>
+        <v>163711</v>
       </c>
       <c r="C263" t="s">
         <v>2244</v>
@@ -26166,7 +26166,7 @@
         <v>15683</v>
       </c>
       <c r="B264" t="n">
-        <v>132913</v>
+        <v>163712</v>
       </c>
       <c r="C264" t="s">
         <v>2251</v>
@@ -26237,7 +26237,7 @@
         <v>15683</v>
       </c>
       <c r="B265" t="n">
-        <v>132914</v>
+        <v>163713</v>
       </c>
       <c r="C265" t="s">
         <v>2259</v>
@@ -26308,7 +26308,7 @@
         <v>15683</v>
       </c>
       <c r="B266" t="n">
-        <v>132915</v>
+        <v>163714</v>
       </c>
       <c r="C266" t="s">
         <v>2266</v>
@@ -26365,7 +26365,7 @@
         <v>15683</v>
       </c>
       <c r="B267" t="n">
-        <v>132916</v>
+        <v>163715</v>
       </c>
       <c r="C267" t="s">
         <v>2273</v>
@@ -26436,7 +26436,7 @@
         <v>15683</v>
       </c>
       <c r="B268" t="n">
-        <v>132917</v>
+        <v>163716</v>
       </c>
       <c r="C268" t="s">
         <v>2280</v>
@@ -26507,7 +26507,7 @@
         <v>15683</v>
       </c>
       <c r="B269" t="n">
-        <v>132918</v>
+        <v>163717</v>
       </c>
       <c r="C269" t="s">
         <v>2288</v>
@@ -26570,7 +26570,7 @@
         <v>15683</v>
       </c>
       <c r="B270" t="n">
-        <v>132919</v>
+        <v>163718</v>
       </c>
       <c r="C270" t="s">
         <v>2294</v>
@@ -26635,7 +26635,7 @@
         <v>15683</v>
       </c>
       <c r="B271" t="n">
-        <v>132920</v>
+        <v>163719</v>
       </c>
       <c r="C271" t="s">
         <v>2301</v>
@@ -26698,7 +26698,7 @@
         <v>15683</v>
       </c>
       <c r="B272" t="n">
-        <v>132921</v>
+        <v>163720</v>
       </c>
       <c r="C272" t="s">
         <v>2307</v>
